--- a/assets/dataFiles/Local Sightseeing (Hour Basis) Test.xlsx
+++ b/assets/dataFiles/Local Sightseeing (Hour Basis) Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF27E3C-71E1-456F-B3E0-08F5104647D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F084E41F-38EB-44C6-B590-A1F915CDDCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4EE4560B-2242-45B6-AAAF-3FCAB05C4C70}"/>
   </bookViews>
